--- a/biology/Zoologie/Jianchangnathus/Jianchangnathus.xlsx
+++ b/biology/Zoologie/Jianchangnathus/Jianchangnathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jianchangnathus robustus
-Jianchangnathus est un genre éteint de ptérosaures de la famille des Rhamphorhynchidae et de la sous-famille des Scaphognathinae[1].
-Un seul fossile est connu. Il a été découvert dans la formation de Tiaojishan dans la province chinoise du Liaoning dans le nord-est du pays. Cette formation géologique est datée de la fin du Jurassique moyen il y a environ 164 Ma (millions d'années)[2],[3].
-Une seule espèce est rattachée au genre : Jianchangnathus robustus, décrite en 2012 par Xin Cheng, Xiaolin Wang, Shunxing Jiang et Alexander W.A. Kellner[1].
+Jianchangnathus est un genre éteint de ptérosaures de la famille des Rhamphorhynchidae et de la sous-famille des Scaphognathinae.
+Un seul fossile est connu. Il a été découvert dans la formation de Tiaojishan dans la province chinoise du Liaoning dans le nord-est du pays. Cette formation géologique est datée de la fin du Jurassique moyen il y a environ 164 Ma (millions d'années),.
+Une seule espèce est rattachée au genre : Jianchangnathus robustus, décrite en 2012 par Xin Cheng, Xiaolin Wang, Shunxing Jiang et Alexander W.A. Kellner.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Jianchangnathus est composé du nom du Xian de Jianchang dans l'ouest du Liaoning où le fossile a été découvert at du mot du grec ancien γνάθος, gnathos signifiant « mâchoire ».
 </t>
@@ -545,17 +559,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jiangchangnathus présente les autapomorphies suivantes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangchangnathus présente les autapomorphies suivantes :
 une marge supérieure convexe de la mâchoire inférieure ;
 une grande branche avant de l'os jugal ;
 trois premières paires de dents de la mandibule pointent fortement vers l'avant.
 Il partage plusieurs caractéristiques avec  Scaphognathus  :
 une extrémité avant haute des mâchoires inférieures ;
 une fenestra (ouverture) temporale inférieure en forme de poire ;
-des dents du maxillaire laissent un espace égal à celui de trois dents entre elles[1].
-L'étude de mélanosomes préservés sur les « poils » du pelage, baptisés « pycnofibres », appartenant à d'autres fossiles non décrits de Jiangchangnathus indiqueraient que leur couleur était brune[4]
+des dents du maxillaire laissent un espace égal à celui de trois dents entre elles.
+L'étude de mélanosomes préservés sur les « poils » du pelage, baptisés « pycnofibres », appartenant à d'autres fossiles non décrits de Jiangchangnathus indiqueraient que leur couleur était brune
 </t>
         </is>
       </c>
